--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,190 +58,184 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>daughter</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -602,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3953488372093023</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3636363636363636</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -763,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -771,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1891891891891892</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8513931888544891</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>550</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -813,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -821,13 +815,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +841,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7864406779661017</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L7">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="M7">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +867,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7608695652173914</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +893,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -925,13 +919,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7123287671232876</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -951,13 +945,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.666131621187801</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>830</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>830</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -977,13 +971,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6875</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1003,13 +997,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6789727126805778</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L13">
-        <v>846</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>846</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>400</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1029,13 +1023,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6458333333333334</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1055,13 +1049,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6457142857142857</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="L15">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M15">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1081,13 +1075,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6444444444444445</v>
+        <v>0.609375</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1107,13 +1101,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6338028169014085</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1133,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6176470588235294</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
         <v>42</v>
@@ -1151,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1159,13 +1153,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1185,13 +1179,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5972222222222222</v>
+        <v>0.5568862275449101</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1211,13 +1205,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5868263473053892</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L21">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1237,13 +1231,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5789473684210527</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1263,13 +1257,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5673076923076923</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1289,13 +1283,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5299145299145299</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L24">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1315,13 +1309,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1341,13 +1335,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5180722891566265</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1367,13 +1361,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5112781954887218</v>
+        <v>0.45</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1393,25 +1387,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4939024390243902</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L28">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1419,13 +1413,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4918032786885246</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1445,13 +1439,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.49</v>
+        <v>0.4240196078431372</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1471,13 +1465,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.4319066147859922</v>
+        <v>0.3780821917808219</v>
       </c>
       <c r="L31">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="M31">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>146</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1497,13 +1491,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4210526315789473</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1515,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1523,13 +1517,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4135338345864661</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="M33">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1541,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1549,13 +1543,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.392156862745098</v>
+        <v>0.3588516746411483</v>
       </c>
       <c r="L34">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="M34">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>248</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1575,13 +1569,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3731138545953361</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L35">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1590,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>457</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1601,13 +1595,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3603603603603603</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1619,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1627,13 +1621,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.3588516746411483</v>
+        <v>0.3240043057050592</v>
       </c>
       <c r="L37">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="M37">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1645,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>134</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1653,13 +1647,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3243243243243243</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1671,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1679,13 +1673,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3178807947019868</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1697,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1705,13 +1699,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3164693218514532</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L40">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="M40">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1723,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>635</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1731,13 +1725,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3093525179856115</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L41">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1746,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>96</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1757,13 +1751,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.297029702970297</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1775,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1783,13 +1777,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2824133504492939</v>
+        <v>0.2576923076923077</v>
       </c>
       <c r="L43">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="M43">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="N43">
         <v>0.99</v>
@@ -1801,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>559</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1809,25 +1803,25 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2701986754966887</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="L44">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="M44">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>551</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1835,25 +1829,25 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2539184952978056</v>
+        <v>0.2330623306233062</v>
       </c>
       <c r="L45">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M45">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>238</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1861,13 +1855,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2171052631578947</v>
+        <v>0.2290076335877863</v>
       </c>
       <c r="L46">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1879,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>357</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1887,25 +1881,25 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2147651006711409</v>
+        <v>0.2097560975609756</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>117</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1913,25 +1907,25 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="L48">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="M48">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N48">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>296</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1939,13 +1933,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1925925925925926</v>
+        <v>0.2052505966587112</v>
       </c>
       <c r="L49">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M49">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1957,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>218</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1965,25 +1959,25 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.192090395480226</v>
+        <v>0.2043956043956044</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>143</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1991,25 +1985,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1890756302521008</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="L51">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>193</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2017,25 +2011,25 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1842105263157895</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="L52">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M52">
         <v>78</v>
       </c>
       <c r="N52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2043,13 +2037,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1840909090909091</v>
+        <v>0.1625615763546798</v>
       </c>
       <c r="L53">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2061,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>359</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2069,13 +2063,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1752577319587629</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L54">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2087,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2095,13 +2089,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1751824817518248</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L55">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2113,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>339</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2121,13 +2115,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1539568345323741</v>
+        <v>0.1412639405204461</v>
       </c>
       <c r="L56">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="N56">
         <v>0.97</v>
@@ -2139,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>588</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2147,25 +2141,25 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1439114391143911</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M57">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>232</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2173,25 +2167,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1330645161290323</v>
+        <v>0.1226591760299625</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>215</v>
+        <v>937</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2199,13 +2193,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1229508196721311</v>
+        <v>0.1040609137055838</v>
       </c>
       <c r="L59">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M59">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2217,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2225,25 +2219,25 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1076779026217228</v>
+        <v>0.1010928961748634</v>
       </c>
       <c r="L60">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="M60">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>953</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2251,25 +2245,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1023017902813299</v>
+        <v>0.08048780487804878</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N61">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="O61">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>351</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2277,25 +2271,25 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.07766990291262135</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="L62">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="N62">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O62">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>380</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2303,25 +2297,25 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.07393715341959335</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M63">
         <v>41</v>
       </c>
       <c r="N63">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="O63">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2329,77 +2323,25 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.07248908296943231</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="L64">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M64">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N64">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65">
-        <v>0.0674373795761079</v>
-      </c>
-      <c r="L65">
-        <v>35</v>
-      </c>
-      <c r="M65">
-        <v>38</v>
-      </c>
-      <c r="N65">
-        <v>0.92</v>
-      </c>
-      <c r="O65">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K66">
-        <v>0.04105960264900662</v>
-      </c>
-      <c r="L66">
-        <v>31</v>
-      </c>
-      <c r="M66">
-        <v>43</v>
-      </c>
-      <c r="N66">
-        <v>0.72</v>
-      </c>
-      <c r="O66">
-        <v>0.28</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>724</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
